--- a/website/exported_data.xlsx
+++ b/website/exported_data.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -810,6 +810,158 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="5" t="n"/>
     </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Box 5</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>INCH</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>234</v>
+      </c>
+      <c r="I16" s="3">
+        <f>E16*2.54 *F16*2.54 *G16*2.54 /6000</f>
+        <v/>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K16" s="3">
+        <f>IF(J16="No", 13*MAX(H16,I16), IF(J16="Yes", 14*MAX(H16,I16), "Invalid Input—Yes or No"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>john@gmail.com</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Box 6</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>INCH</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>234</v>
+      </c>
+      <c r="I17">
+        <f>E17*2.54 *F17*2.54 *G17*2.54 /6000</f>
+        <v/>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K17">
+        <f>IF(J17="No", 13*MAX(H17,I17), IF(J17="Yes", 14*MAX(H17,I17), "Invalid Input—Yes or No"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cell Number</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2983748932</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Delivery Option</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Door to Door</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Wants Insurance</t>
+        </is>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total Cost</t>
+        </is>
+      </c>
+      <c r="B21">
+        <f>SUM(K16:K17)</f>
+        <v/>
+      </c>
+      <c r="C21" s="5" t="n"/>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" s="5" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/website/exported_data.xlsx
+++ b/website/exported_data.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -810,158 +810,6 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" s="5" t="n"/>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Box 5</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>INCH</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>234</v>
-      </c>
-      <c r="I16" s="3">
-        <f>E16*2.54 *F16*2.54 *G16*2.54 /6000</f>
-        <v/>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K16" s="3">
-        <f>IF(J16="No", 13*MAX(H16,I16), IF(J16="Yes", 14*MAX(H16,I16), "Invalid Input—Yes or No"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>john@gmail.com</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Box 6</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INCH</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>234</v>
-      </c>
-      <c r="I17">
-        <f>E17*2.54 *F17*2.54 *G17*2.54 /6000</f>
-        <v/>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K17">
-        <f>IF(J17="No", 13*MAX(H17,I17), IF(J17="Yes", 14*MAX(H17,I17), "Invalid Input—Yes or No"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Cell Number</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2983748932</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Delivery Option</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Door to Door</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Wants Insurance</t>
-        </is>
-      </c>
-      <c r="B20" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Total Cost</t>
-        </is>
-      </c>
-      <c r="B21">
-        <f>SUM(K16:K17)</f>
-        <v/>
-      </c>
-      <c r="C21" s="5" t="n"/>
-    </row>
-    <row r="22" ht="20" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" s="5" t="n"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
